--- a/Win CE Server Based Job Ledger Cash Estimate Banee.xlsx
+++ b/Win CE Server Based Job Ledger Cash Estimate Banee.xlsx
@@ -376,14 +376,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,50 +721,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
-        <v>125</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9">
+        <v>100</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
@@ -779,822 +779,822 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="7">
         <v>2</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:H35" si="0">G4*$G$2</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="7">
         <v>0.5</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" ref="H5:H6" si="1">G5*$G$2</f>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="7">
         <v>0.5</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="7">
         <v>2</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" ref="H7" si="2">G7*$G$2</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" ref="H8" si="3">G8*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="7">
         <v>1</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7">
         <v>1</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="7">
         <v>1</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="7">
         <v>4</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ref="H12:H20" si="4">G12*$G$2</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="7">
         <v>0.5</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="4"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="7">
         <v>0.5</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="4"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="7">
         <v>2</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="7">
         <v>1</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="7">
         <v>2</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="E18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="7">
         <v>1</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="7">
         <v>1</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="7">
         <v>1</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="7">
         <f>G21*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="7">
         <v>1</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" ref="H22" si="5">G22*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="7">
         <v>1</v>
       </c>
       <c r="H23" s="7">
         <f>G23*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>3</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="7">
         <v>1</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="7">
         <v>2</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" ref="H25:H34" si="6">G25*$G$2</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="7">
         <v>3</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="6"/>
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="7">
         <v>1</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="7">
         <v>0.5</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="6"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="7">
         <v>2</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="6"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10"/>
       <c r="G30" s="7">
         <v>1</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="7">
         <v>1</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" ref="H31" si="7">G31*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="7">
         <v>1</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="7">
         <v>1</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="7">
         <v>1</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="7">
         <v>1</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="7">
         <v>1</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" ref="H36:H37" si="8">G36*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="7">
         <v>2</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="8"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <v>4</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="7">
         <v>1</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" ref="H38:H41" si="9">G38*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="7">
         <v>4</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="7">
         <v>4</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="9"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="7">
         <v>2</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="7">
         <v>1</v>
       </c>
       <c r="H42" s="7">
         <f>G42*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="7">
         <v>1</v>
       </c>
       <c r="H43" s="7">
         <f>G43*$G$2</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="7">
         <v>2</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" ref="H44" si="10">G44*$G$2</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -1604,18 +1604,18 @@
         <v>1</v>
       </c>
       <c r="H45" s="7">
-        <f>G45*$G$2</f>
-        <v>125</v>
+        <f t="shared" ref="H45:H50" si="11">G45*$G$2</f>
+        <v>100</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="4" t="s">
         <v>37</v>
       </c>
@@ -1623,18 +1623,18 @@
         <v>1</v>
       </c>
       <c r="H46" s="7">
-        <f>G46*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="4" t="s">
         <v>36</v>
       </c>
@@ -1642,18 +1642,18 @@
         <v>1</v>
       </c>
       <c r="H47" s="7">
-        <f>G47*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -1663,18 +1663,18 @@
         <v>1</v>
       </c>
       <c r="H48" s="7">
-        <f>G48*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="4" t="s">
         <v>44</v>
       </c>
@@ -1682,18 +1682,18 @@
         <v>1</v>
       </c>
       <c r="H49" s="7">
-        <f>G49*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="4" t="s">
         <v>45</v>
       </c>
@@ -1701,18 +1701,18 @@
         <v>1</v>
       </c>
       <c r="H50" s="7">
-        <f>G50*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="4" t="s">
         <v>46</v>
       </c>
@@ -1720,18 +1720,18 @@
         <v>1</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" ref="H51:H52" si="11">G51*$G$2</f>
-        <v>125</v>
+        <f t="shared" ref="H51:H52" si="12">G51*$G$2</f>
+        <v>100</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="4" t="s">
         <v>47</v>
       </c>
@@ -1739,18 +1739,18 @@
         <v>1</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1760,18 +1760,18 @@
         <v>3</v>
       </c>
       <c r="H53" s="7">
-        <f>G53*$G$2</f>
-        <v>375</v>
+        <f t="shared" ref="H53:H64" si="13">G53*$G$2</f>
+        <v>300</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="4" t="s">
         <v>51</v>
       </c>
@@ -1779,18 +1779,18 @@
         <v>1</v>
       </c>
       <c r="H54" s="7">
-        <f>G54*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="4" t="s">
         <v>50</v>
       </c>
@@ -1798,81 +1798,81 @@
         <v>1</v>
       </c>
       <c r="H55" s="7">
-        <f>G55*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="9">
         <v>5</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="7">
         <v>1</v>
       </c>
       <c r="H56" s="7">
-        <f>G56*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="7">
-        <f>G57*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="7">
         <v>1</v>
       </c>
       <c r="H58" s="7">
-        <f>G58*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8" t="s">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -1882,18 +1882,18 @@
         <v>1</v>
       </c>
       <c r="H59" s="7">
-        <f>G59*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="4" t="s">
         <v>55</v>
       </c>
@@ -1901,18 +1901,18 @@
         <v>1</v>
       </c>
       <c r="H60" s="7">
-        <f>G60*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="4" t="s">
         <v>56</v>
       </c>
@@ -1920,18 +1920,18 @@
         <v>1</v>
       </c>
       <c r="H61" s="7">
-        <f>G61*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="4" t="s">
         <v>57</v>
       </c>
@@ -1939,18 +1939,18 @@
         <v>1</v>
       </c>
       <c r="H62" s="7">
-        <f>G62*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="4" t="s">
         <v>58</v>
       </c>
@@ -1958,18 +1958,18 @@
         <v>2.5</v>
       </c>
       <c r="H63" s="7">
-        <f>G63*$G$2</f>
-        <v>312.5</v>
+        <f t="shared" si="13"/>
+        <v>250</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -1979,18 +1979,18 @@
         <v>1</v>
       </c>
       <c r="H64" s="7">
-        <f>G64*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="4" t="s">
         <v>57</v>
       </c>
@@ -1998,18 +1998,18 @@
         <v>1</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" ref="H65:H66" si="12">G65*$G$2</f>
-        <v>125</v>
+        <f t="shared" ref="H65:H66" si="14">G65*$G$2</f>
+        <v>100</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="4" t="s">
         <v>58</v>
       </c>
@@ -2017,18 +2017,18 @@
         <v>1</v>
       </c>
       <c r="H66" s="7">
-        <f t="shared" si="12"/>
-        <v>125</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8" t="s">
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2038,18 +2038,18 @@
         <v>1</v>
       </c>
       <c r="H67" s="7">
-        <f>G67*$G$2</f>
-        <v>125</v>
+        <f t="shared" ref="H67:H75" si="15">G67*$G$2</f>
+        <v>100</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="4" t="s">
         <v>63</v>
       </c>
@@ -2057,18 +2057,18 @@
         <v>1</v>
       </c>
       <c r="H68" s="7">
-        <f>G68*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="4" t="s">
         <v>64</v>
       </c>
@@ -2076,18 +2076,18 @@
         <v>1</v>
       </c>
       <c r="H69" s="7">
-        <f>G69*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="4" t="s">
         <v>65</v>
       </c>
@@ -2095,45 +2095,45 @@
         <v>1</v>
       </c>
       <c r="H70" s="7">
-        <f>G70*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="9">
         <v>6</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="7">
         <v>1</v>
       </c>
       <c r="H71" s="7">
-        <f>G71*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -2143,18 +2143,18 @@
         <v>1</v>
       </c>
       <c r="H72" s="7">
-        <f>G72*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="4" t="s">
         <v>71</v>
       </c>
@@ -2162,79 +2162,79 @@
         <v>1</v>
       </c>
       <c r="H73" s="7">
-        <f>G73*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9" t="s">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="7">
         <v>1</v>
       </c>
       <c r="H74" s="7">
-        <f>G74*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9" t="s">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="10"/>
       <c r="G75" s="7">
         <v>1.5</v>
       </c>
       <c r="H75" s="7">
-        <f>G75*$G$2</f>
-        <v>187.5</v>
+        <f t="shared" si="15"/>
+        <v>150</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="9"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="7">
         <v>1</v>
       </c>
       <c r="H76" s="7">
-        <f t="shared" ref="H76" si="13">G76*$G$2</f>
-        <v>125</v>
+        <f t="shared" ref="H76" si="16">G76*$G$2</f>
+        <v>100</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8" t="s">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F77" s="4" t="s">
@@ -2244,18 +2244,18 @@
         <v>1</v>
       </c>
       <c r="H77" s="7">
-        <f>G77*$G$2</f>
-        <v>125</v>
+        <f t="shared" ref="H77:H95" si="17">G77*$G$2</f>
+        <v>100</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="4" t="s">
         <v>71</v>
       </c>
@@ -2263,239 +2263,239 @@
         <v>1</v>
       </c>
       <c r="H78" s="7">
-        <f>G78*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="9" t="s">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="9"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="7">
         <v>1</v>
       </c>
       <c r="H79" s="7">
-        <f>G79*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="9" t="s">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F80" s="9"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="7">
         <v>1.5</v>
       </c>
       <c r="H80" s="7">
-        <f>G80*$G$2</f>
-        <v>187.5</v>
+        <f t="shared" si="17"/>
+        <v>150</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+      <c r="A81" s="9">
         <v>7</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="7">
         <v>1</v>
       </c>
       <c r="H81" s="7">
-        <f>G81*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="9" t="s">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="7">
         <v>1</v>
       </c>
       <c r="H82" s="7">
-        <f>G82*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="9" t="s">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="7">
         <v>1</v>
       </c>
       <c r="H83" s="7">
-        <f>G83*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="9" t="s">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="7">
         <v>1</v>
       </c>
       <c r="H84" s="7">
-        <f>G84*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="9" t="s">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="7">
         <v>1</v>
       </c>
       <c r="H85" s="7">
-        <f>G85*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+      <c r="A86" s="9">
         <v>8</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8" t="s">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="9"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="7">
         <v>1</v>
       </c>
       <c r="H86" s="7">
-        <f>G86*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="9" t="s">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="7">
         <v>1</v>
       </c>
       <c r="H87" s="7">
-        <f>G87*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8" t="s">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="7">
         <v>1</v>
       </c>
       <c r="H88" s="7">
-        <f>G88*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="9" t="s">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="9"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="7">
         <v>1</v>
       </c>
       <c r="H89" s="7">
-        <f>G89*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8" t="s">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F90" s="7" t="s">
@@ -2505,18 +2505,18 @@
         <v>1</v>
       </c>
       <c r="H90" s="7">
-        <f>G90*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="7" t="s">
         <v>82</v>
       </c>
@@ -2524,18 +2524,18 @@
         <v>1</v>
       </c>
       <c r="H91" s="7">
-        <f>G91*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="7" t="s">
         <v>83</v>
       </c>
@@ -2543,18 +2543,18 @@
         <v>1</v>
       </c>
       <c r="H92" s="7">
-        <f>G92*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="7" t="s">
         <v>84</v>
       </c>
@@ -2562,18 +2562,18 @@
         <v>1</v>
       </c>
       <c r="H93" s="7">
-        <f>G93*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="7" t="s">
         <v>85</v>
       </c>
@@ -2581,18 +2581,18 @@
         <v>1</v>
       </c>
       <c r="H94" s="7">
-        <f>G94*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="7" t="s">
         <v>86</v>
       </c>
@@ -2600,66 +2600,66 @@
         <v>1</v>
       </c>
       <c r="H95" s="7">
-        <f>G95*$G$2</f>
-        <v>125</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="9" t="s">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F96" s="9"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="7">
         <v>1</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" ref="H96:H97" si="14">G96*$G$2</f>
-        <v>125</v>
+        <f t="shared" ref="H96:H97" si="18">G96*$G$2</f>
+        <v>100</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="9" t="s">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F97" s="9"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="7">
         <v>1</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="14"/>
-        <v>125</v>
+        <f t="shared" si="18"/>
+        <v>100</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="7">
         <f>SUM(G4:G97)</f>
         <v>116</v>
       </c>
       <c r="H98" s="7">
         <f>SUM(H4:H97)</f>
-        <v>14500</v>
+        <v>11600</v>
       </c>
       <c r="I98" s="7">
         <f>SUM(I38:I97)</f>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
-      <c r="D99" s="10"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
-      <c r="D100" s="10"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -2699,41 +2699,47 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E90:E95"/>
-    <mergeCell ref="A86:B97"/>
-    <mergeCell ref="C86:C97"/>
-    <mergeCell ref="D88:D97"/>
-    <mergeCell ref="A56:B70"/>
-    <mergeCell ref="C56:C70"/>
-    <mergeCell ref="D56:D70"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:B23"/>
-    <mergeCell ref="C12:C23"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A38:B55"/>
+    <mergeCell ref="C38:C55"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D42:D55"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E97:F97"/>
     <mergeCell ref="A81:B85"/>
     <mergeCell ref="C81:C85"/>
@@ -2758,54 +2764,48 @@
     <mergeCell ref="D30:D37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A38:B55"/>
-    <mergeCell ref="C38:C55"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D42:D55"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D18:D23"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E90:E95"/>
+    <mergeCell ref="A86:B97"/>
+    <mergeCell ref="C86:C97"/>
+    <mergeCell ref="D88:D97"/>
+    <mergeCell ref="A56:B70"/>
+    <mergeCell ref="C56:C70"/>
+    <mergeCell ref="D56:D70"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E96:F96"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
